--- a/experiments/participants.xlsx
+++ b/experiments/participants.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="43">
   <si>
     <t>time_stamp</t>
   </si>
@@ -71,6 +71,78 @@
   </si>
   <si>
     <t>0# 0 for ???. 1 for ???</t>
+  </si>
+  <si>
+    <t>2023-09-08 15:22:36</t>
+  </si>
+  <si>
+    <t>251802</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2023-09-08 17:02:05</t>
+  </si>
+  <si>
+    <t>920567</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>2023-09-11 10:27:41</t>
+  </si>
+  <si>
+    <t>212663</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>2023-09-15 16:47:01</t>
+  </si>
+  <si>
+    <t>787632</t>
+  </si>
+  <si>
+    <t>2023-09-15 18:24:41</t>
+  </si>
+  <si>
+    <t>498307</t>
+  </si>
+  <si>
+    <t>2023-09-18 10:52:28</t>
+  </si>
+  <si>
+    <t>948536</t>
+  </si>
+  <si>
+    <t>2023-09-19 14:15:05</t>
+  </si>
+  <si>
+    <t>791779</t>
+  </si>
+  <si>
+    <t>2023-09-19 15:08:27</t>
+  </si>
+  <si>
+    <t>619165</t>
+  </si>
+  <si>
+    <t>2023-09-19 15:21:43</t>
+  </si>
+  <si>
+    <t>181859</t>
+  </si>
+  <si>
+    <t>2023-09-20 10:37:24</t>
+  </si>
+  <si>
+    <t>nici_pilot_full_2</t>
+  </si>
+  <si>
+    <t>20</t>
   </si>
 </sst>
 </file>
@@ -83,7 +155,7 @@
     <numFmt numFmtId="176" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* \-??\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,13 +166,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -568,148 +633,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1064,13 +1129,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
@@ -1200,6 +1265,266 @@
       </c>
       <c r="H5">
         <v>4.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>44</v>
+      </c>
+      <c r="F6">
+        <v>47.7</v>
+      </c>
+      <c r="G6">
+        <v>45.85</v>
+      </c>
+      <c r="H6">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>44.3</v>
+      </c>
+      <c r="F7">
+        <v>48</v>
+      </c>
+      <c r="G7">
+        <v>46.15</v>
+      </c>
+      <c r="H7">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8">
+        <v>43.7</v>
+      </c>
+      <c r="F8">
+        <v>48</v>
+      </c>
+      <c r="G8">
+        <v>45.8</v>
+      </c>
+      <c r="H8">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9">
+        <v>20</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9">
+        <v>43.8</v>
+      </c>
+      <c r="F9">
+        <v>48</v>
+      </c>
+      <c r="G9">
+        <v>45.9</v>
+      </c>
+      <c r="H9">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10">
+        <v>45</v>
+      </c>
+      <c r="F10">
+        <v>48</v>
+      </c>
+      <c r="G10">
+        <v>46.5</v>
+      </c>
+      <c r="H10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11">
+        <v>20</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11">
+        <v>41.6</v>
+      </c>
+      <c r="F11">
+        <v>46.4</v>
+      </c>
+      <c r="G11">
+        <v>44</v>
+      </c>
+      <c r="H11">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12">
+        <v>20</v>
+      </c>
+      <c r="D12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12">
+        <v>45</v>
+      </c>
+      <c r="F12">
+        <v>48</v>
+      </c>
+      <c r="G12">
+        <v>46.5</v>
+      </c>
+      <c r="H12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13">
+        <v>20</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13">
+        <v>41.3</v>
+      </c>
+      <c r="F13">
+        <v>45</v>
+      </c>
+      <c r="G13">
+        <v>43.2</v>
+      </c>
+      <c r="H13">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14">
+        <v>20</v>
+      </c>
+      <c r="D14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14">
+        <v>45</v>
+      </c>
+      <c r="F14">
+        <v>47.1</v>
+      </c>
+      <c r="G14">
+        <v>46</v>
+      </c>
+      <c r="H14">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15">
+        <v>35.1</v>
+      </c>
+      <c r="F15">
+        <v>40.8</v>
+      </c>
+      <c r="G15">
+        <v>38</v>
+      </c>
+      <c r="H15">
+        <v>5.7</v>
       </c>
     </row>
   </sheetData>

--- a/experiments/participants.xlsx
+++ b/experiments/participants.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="10035"/>
+    <workbookView windowWidth="21000" windowHeight="9585"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="50">
   <si>
     <t>time_stamp</t>
   </si>
@@ -142,7 +142,28 @@
     <t>nici_pilot_full_2</t>
   </si>
   <si>
-    <t>20</t>
+    <t>test_no_real_data</t>
+  </si>
+  <si>
+    <t>2023-11-07 10:49:51</t>
+  </si>
+  <si>
+    <t>katja-test</t>
+  </si>
+  <si>
+    <t>2023-11-13 17:00:29</t>
+  </si>
+  <si>
+    <t>364076</t>
+  </si>
+  <si>
+    <t>2023-11-16 16:53:06</t>
+  </si>
+  <si>
+    <t>loetest</t>
+  </si>
+  <si>
+    <t>dummy</t>
   </si>
 </sst>
 </file>
@@ -155,7 +176,7 @@
     <numFmt numFmtId="176" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* \-??\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -166,6 +187,13 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -633,148 +661,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1129,10 +1157,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -1508,8 +1536,8 @@
       <c r="B15" t="s">
         <v>41</v>
       </c>
-      <c r="C15" t="s">
-        <v>42</v>
+      <c r="C15">
+        <v>20</v>
       </c>
       <c r="D15" t="s">
         <v>27</v>
@@ -1525,6 +1553,136 @@
       </c>
       <c r="H15">
         <v>5.7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16">
+        <v>20</v>
+      </c>
+      <c r="D16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16">
+        <v>35.1</v>
+      </c>
+      <c r="F16">
+        <v>40.8</v>
+      </c>
+      <c r="G16">
+        <v>38</v>
+      </c>
+      <c r="H16">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17">
+        <v>20</v>
+      </c>
+      <c r="D17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17">
+        <v>43.6</v>
+      </c>
+      <c r="F17">
+        <v>45</v>
+      </c>
+      <c r="G17">
+        <v>44.3</v>
+      </c>
+      <c r="H17">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18">
+        <v>20</v>
+      </c>
+      <c r="D18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18">
+        <v>47.7</v>
+      </c>
+      <c r="F18">
+        <v>48</v>
+      </c>
+      <c r="G18">
+        <v>47.8</v>
+      </c>
+      <c r="H18">
+        <v>0.299999999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19">
+        <v>20</v>
+      </c>
+      <c r="D19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19">
+        <v>42</v>
+      </c>
+      <c r="F19">
+        <v>45</v>
+      </c>
+      <c r="G19">
+        <v>43.9</v>
+      </c>
+      <c r="H19">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20">
+        <v>20</v>
+      </c>
+      <c r="D20" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20">
+        <v>42</v>
+      </c>
+      <c r="F20">
+        <v>45</v>
+      </c>
+      <c r="G20">
+        <v>43.9</v>
+      </c>
+      <c r="H20">
+        <v>3.2</v>
       </c>
     </row>
   </sheetData>
